--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,40 +40,49 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>die</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>emergency</t>
@@ -85,15 +94,15 @@
     <t>lower</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -109,133 +118,127 @@
     <t>19</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>shop</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,16 +686,16 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -704,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -712,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -754,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -762,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -780,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -804,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -812,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7945205479452054</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -830,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -854,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -862,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7666666666666667</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -880,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -904,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -912,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -930,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.8484848484848485</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -962,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7567567567567568</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,16 +986,16 @@
         <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8482142857142857</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L9">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1004,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1012,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5932203389830508</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1030,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1054,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1062,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5714285714285714</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1080,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8198433420365535</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>314</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>314</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1104,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1112,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5368217054263565</v>
+        <v>0.5406976744186046</v>
       </c>
       <c r="C12">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D12">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1130,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.79375</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L12">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="M12">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1154,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1162,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5294117647058824</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1180,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.7872340425531915</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1204,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1212,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5234899328859061</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C14">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1230,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1254,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1262,13 +1265,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.44</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1280,31 +1283,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>28</v>
-      </c>
-      <c r="M15">
-        <v>28</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1312,37 +1315,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3636363636363636</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>20</v>
       </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>35</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1354,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1362,13 +1365,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3571428571428572</v>
+        <v>0.475</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1380,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.7676056338028169</v>
+        <v>0.76875</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1404,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1412,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3134920634920635</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C18">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1430,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,13 +1465,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3111111111111111</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1480,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.7560975609756098</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1504,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1512,13 +1515,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2987012987012987</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1530,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.7547169811320755</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1554,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1562,13 +1565,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1662198391420912</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C21">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1580,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>311</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.6976744186046512</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1604,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1612,13 +1615,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1133333333333333</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1630,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.6875</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1654,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1662,37 +1665,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01725625539257981</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1139</v>
+        <v>66</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.6785714285714286</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1704,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1712,28 +1715,28 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01617599482368166</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3041</v>
+        <v>309</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K24">
         <v>0.675</v>
@@ -1762,37 +1765,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01267605633802817</v>
+        <v>0.08</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2103</v>
+        <v>276</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.6571428571428571</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1804,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1812,63 +1815,87 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006331117442228553</v>
+        <v>0.01898188093183779</v>
       </c>
       <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>0.08</v>
+      </c>
+      <c r="F26">
+        <v>0.92</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1137</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L26">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.01388440426218922</v>
+      </c>
+      <c r="C27">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>53</v>
+      </c>
+      <c r="E27">
+        <v>0.19</v>
+      </c>
+      <c r="F27">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3054</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="L27">
         <v>20</v>
       </c>
-      <c r="D26">
-        <v>62</v>
-      </c>
-      <c r="E26">
-        <v>0.68</v>
-      </c>
-      <c r="F26">
-        <v>0.32</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>3139</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L26">
-        <v>220</v>
-      </c>
-      <c r="M26">
-        <v>220</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L27">
-        <v>40</v>
-      </c>
       <c r="M27">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1880,21 +1907,45 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.01218940459446789</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>0.28</v>
+      </c>
+      <c r="F28">
+        <v>0.72</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2107</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.6060606060606061</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1906,21 +1957,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.58</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1932,47 +1983,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.5782312925170068</v>
+        <v>0.5898305084745763</v>
       </c>
       <c r="L30">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M30">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.574468085106383</v>
+        <v>0.58</v>
       </c>
       <c r="L31">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1984,47 +2035,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.5630252100840336</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L32">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.550561797752809</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2036,21 +2087,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.5476190476190477</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2062,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2088,21 +2139,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.4666666666666667</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2114,21 +2165,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.4509803921568628</v>
+        <v>0.40625</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2140,21 +2191,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.3972602739726027</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2166,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.375</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2192,21 +2243,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.3461538461538461</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2218,15 +2269,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.3220338983050847</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L41">
         <v>19</v>
@@ -2244,85 +2295,33 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>40</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.1774193548387097</v>
+        <v>0.0119309262166405</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K43">
-        <v>0.1081081081081081</v>
-      </c>
-      <c r="L43">
-        <v>20</v>
-      </c>
-      <c r="M43">
-        <v>20</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K44">
-        <v>0.01320339515875511</v>
-      </c>
-      <c r="L44">
-        <v>42</v>
-      </c>
-      <c r="M44">
-        <v>62</v>
-      </c>
-      <c r="N44">
-        <v>0.68</v>
-      </c>
-      <c r="O44">
-        <v>0.32</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3139</v>
+        <v>3147</v>
       </c>
     </row>
   </sheetData>
